--- a/Tables/ServiceType.xlsx
+++ b/Tables/ServiceType.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4EC74C-7528-4D61-AFA2-75EE51ECC37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AF38BA-AC05-466F-B442-C7ACF7BF1524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="220" windowWidth="10430" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="15730" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -371,6 +371,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="2.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
